--- a/TimeSheetApp/Use Case Expansion.xlsx
+++ b/TimeSheetApp/Use Case Expansion.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19440" windowHeight="12240"/>
+    <workbookView xWindow="7860" yWindow="-80" windowWidth="19440" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -21,7 +21,280 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="116">
+  <si>
+    <t>administersHoliday</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CFO reviews employee hours </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFO administers holiday pay to appropriate employees</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFO reviews employee time sheets</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFO gives holiday pay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prophet, CFO, User to be modified</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prophet or CFO is notified of change of User's information</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prophet or CFO makes change to profile</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>User leaves the company</t>
+  </si>
+  <si>
+    <t>Edit User</t>
+  </si>
+  <si>
+    <t>Elite, User (optional)</t>
+  </si>
+  <si>
+    <t>Elite is notified of changes to User's information</t>
+  </si>
+  <si>
+    <t>Elite makes appropriate changes to the User's Profile</t>
+  </si>
+  <si>
+    <t>User's profile is updated in the system</t>
+  </si>
+  <si>
+    <t>User's profile is updated</t>
+  </si>
+  <si>
+    <t>Grunt receives notification.</t>
+  </si>
+  <si>
+    <t>Elite manually adjusts time sheet.</t>
+  </si>
+  <si>
+    <t>Use Case Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Participating Actors</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flow of Events</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entry Condition</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit Condition</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality Requirements</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Case Nme</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit Condition</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>globalHours</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Received by all</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employees take day off and receive pay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportData</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initiated by CFO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFO reviews extenuating circumstance</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFO gives all employees paid day of leave</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFO announces paid day of leave</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CFO receives data </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFO exports data to a spreadsheet</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initiated by CFO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFO accesses company financial data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFO copies data into a spreadsheet</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality Requirements</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. The Elite determines that there are no problems with the hours recorded and clicks the Approve Hours button.</t>
+  </si>
+  <si>
+    <t>The Elite has reviewed the Grunt's timesheet info.</t>
+  </si>
+  <si>
+    <t>The Elite has approved the Grunt's hours.</t>
+  </si>
+  <si>
+    <t>2. The Elite determines that there are issues with the hours recorded by the Grunt and hits the Deny Hours button.</t>
+  </si>
+  <si>
+    <t>3. A notification is sent to the Grunt to inform him or her that the hours have been denied. The Grunt must discuss the issue with the Elite.</t>
+  </si>
+  <si>
+    <t>A notification has been sent to the Grunt indicating that there is an issue with his timesheet info.</t>
+  </si>
+  <si>
+    <t>ApproveVacaSick</t>
+  </si>
+  <si>
+    <t>DoesntClock</t>
+  </si>
+  <si>
+    <t>SendNotification</t>
+  </si>
+  <si>
+    <t>Elite recieves request from Grunt</t>
+  </si>
+  <si>
+    <t>1. Elite reviews text file received from Grunt</t>
+  </si>
+  <si>
+    <t>Grunt receives notification from Elite</t>
+  </si>
+  <si>
+    <t>2. Elite manually adjusts Grunt's Timesheet.</t>
+  </si>
+  <si>
+    <t>3. Program sends notification to Grunt</t>
+  </si>
+  <si>
+    <t>Grunt requests vacation or sick time.</t>
+  </si>
+  <si>
+    <t>Notification of Elite's actions sent to Grunt.</t>
+  </si>
+  <si>
+    <t>Negligent Grunt</t>
+  </si>
+  <si>
+    <t>3. Program sends notification to Grunt.</t>
+  </si>
+  <si>
+    <t>Elite is logged into Timesheet.</t>
+  </si>
+  <si>
+    <t>Received by Grunt</t>
+  </si>
+  <si>
+    <t>1. See DoesntClock or ApproveVacaSick. Elite has manually adjusted the Grunt's timesheet.</t>
+  </si>
+  <si>
+    <t>2. Notification is sent to Grunt.</t>
+  </si>
+  <si>
+    <t>Use Case name</t>
+  </si>
+  <si>
+    <t>Modify User</t>
+  </si>
+  <si>
+    <t>Flow of Events</t>
+  </si>
+  <si>
+    <t>Entry Condition</t>
+  </si>
+  <si>
+    <t>Exit Condition</t>
+  </si>
+  <si>
+    <t>Changes are made to the User's profile</t>
+  </si>
+  <si>
+    <t>User's personal information changes</t>
+  </si>
+  <si>
+    <t>Use Case Name</t>
+  </si>
+  <si>
+    <t>Add User</t>
+  </si>
+  <si>
+    <t>Participating Actors</t>
+  </si>
+  <si>
+    <t>Elite</t>
+  </si>
+  <si>
+    <t>User supplies HR with their information</t>
+  </si>
+  <si>
+    <t>Elite creates a profile for the user</t>
+  </si>
+  <si>
+    <t>Elite adds profile to the system</t>
+  </si>
+  <si>
+    <t>User supplies personal information</t>
+  </si>
+  <si>
+    <t>Elite adds the profile to the system</t>
+  </si>
+  <si>
+    <t>Remove User</t>
+  </si>
+  <si>
+    <t>User no longer works for company</t>
+  </si>
+  <si>
+    <t>Elite is notified of User's departure</t>
+  </si>
+  <si>
+    <t>Elite removes User's profile from the system</t>
+  </si>
   <si>
     <t>Use case name</t>
   </si>
@@ -126,175 +399,13 @@
   </si>
   <si>
     <t>1. See ReviewTimesheets. At the end of ReviewTimesheets, the Elite is ready to make a decision regarding the Grunt's hours.</t>
-  </si>
-  <si>
-    <t>2. The Elite determines that there are no problems with the hours recorded and clicks the Approve Hours button.</t>
-  </si>
-  <si>
-    <t>The Elite has reviewed the Grunt's timesheet info.</t>
-  </si>
-  <si>
-    <t>The Elite has approved the Grunt's hours.</t>
-  </si>
-  <si>
-    <t>2. The Elite determines that there are issues with the hours recorded by the Grunt and hits the Deny Hours button.</t>
-  </si>
-  <si>
-    <t>3. A notification is sent to the Grunt to inform him or her that the hours have been denied. The Grunt must discuss the issue with the Elite.</t>
-  </si>
-  <si>
-    <t>A notification has been sent to the Grunt indicating that there is an issue with his timesheet info.</t>
-  </si>
-  <si>
-    <t>ApproveVacaSick</t>
-  </si>
-  <si>
-    <t>DoesntClock</t>
-  </si>
-  <si>
-    <t>SendNotification</t>
-  </si>
-  <si>
-    <t>Elite recieves request from Grunt</t>
-  </si>
-  <si>
-    <t>1. Elite reviews text file received from Grunt</t>
-  </si>
-  <si>
-    <t>Grunt receives notification from Elite</t>
-  </si>
-  <si>
-    <t>2. Elite manually adjusts Grunt's Timesheet.</t>
-  </si>
-  <si>
-    <t>3. Program sends notification to Grunt</t>
-  </si>
-  <si>
-    <t>Grunt requests vacation or sick time.</t>
-  </si>
-  <si>
-    <t>Notification of Elite's actions sent to Grunt.</t>
-  </si>
-  <si>
-    <t>Negligent Grunt</t>
-  </si>
-  <si>
-    <t>3. Program sends notification to Grunt.</t>
-  </si>
-  <si>
-    <t>Elite is logged into Timesheet.</t>
-  </si>
-  <si>
-    <t>Received by Grunt</t>
-  </si>
-  <si>
-    <t>1. See DoesntClock or ApproveVacaSick. Elite has manually adjusted the Grunt's timesheet.</t>
-  </si>
-  <si>
-    <t>2. Notification is sent to Grunt.</t>
-  </si>
-  <si>
-    <t>Use Case name</t>
-  </si>
-  <si>
-    <t>Modify User</t>
-  </si>
-  <si>
-    <t>Flow of Events</t>
-  </si>
-  <si>
-    <t>Elite, User to be modified</t>
-  </si>
-  <si>
-    <t>Elite is notified of change of User's information</t>
-  </si>
-  <si>
-    <t>Elite makes change to profile</t>
-  </si>
-  <si>
-    <t>Entry Condition</t>
-  </si>
-  <si>
-    <t>Exit Condition</t>
-  </si>
-  <si>
-    <t>Changes are made to the User's profile</t>
-  </si>
-  <si>
-    <t>User's personal information changes</t>
-  </si>
-  <si>
-    <t>Use Case Name</t>
-  </si>
-  <si>
-    <t>Add User</t>
-  </si>
-  <si>
-    <t>Participating Actors</t>
-  </si>
-  <si>
-    <t>Elite</t>
-  </si>
-  <si>
-    <t>User supplies HR with their information</t>
-  </si>
-  <si>
-    <t>Elite creates a profile for the user</t>
-  </si>
-  <si>
-    <t>Elite adds profile to the system</t>
-  </si>
-  <si>
-    <t>User supplies personal information</t>
-  </si>
-  <si>
-    <t>Elite adds the profile to the system</t>
-  </si>
-  <si>
-    <t>Remove User</t>
-  </si>
-  <si>
-    <t>User no longer works for company</t>
-  </si>
-  <si>
-    <t>Elite is notified of User's departure</t>
-  </si>
-  <si>
-    <t>Elite removes User's profile from the system</t>
-  </si>
-  <si>
-    <t>User leaves the company</t>
-  </si>
-  <si>
-    <t>Edit User</t>
-  </si>
-  <si>
-    <t>Elite, User (optional)</t>
-  </si>
-  <si>
-    <t>Elite is notified of changes to User's information</t>
-  </si>
-  <si>
-    <t>Elite makes appropriate changes to the User's Profile</t>
-  </si>
-  <si>
-    <t>User's profile is updated in the system</t>
-  </si>
-  <si>
-    <t>User's profile is updated</t>
-  </si>
-  <si>
-    <t>Grunt receives notification.</t>
-  </si>
-  <si>
-    <t>Elite manually adjusts time sheet.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,13 +437,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -362,33 +490,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -396,33 +513,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -710,881 +807,1187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:X181"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A2:X227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="D242" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="126.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="126.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="83" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
+      <c r="A4" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
+      <c r="A6" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="D7" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+      <c r="A9" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
+      <c r="A11" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
+      <c r="A13" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="15" spans="1:12" ht="15.75" thickTop="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1"/>
+    <row r="15" spans="1:12" ht="15" thickTop="1">
+      <c r="A15" s="13"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
+      <c r="A16" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
+      <c r="A18" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="C19" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="1" t="s">
-        <v>4</v>
+      <c r="A21" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="C22" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="D23" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="P24" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="V24" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="1" t="s">
-        <v>6</v>
+      <c r="A25" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="Q25" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:22">
       <c r="P26" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="1" t="s">
-        <v>8</v>
+      <c r="A27" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="15.75" thickBot="1"/>
-    <row r="31" spans="1:22" ht="15.75" thickTop="1">
-      <c r="A31" s="4"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="A29" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15" thickBot="1"/>
+    <row r="31" spans="1:22" ht="15" thickTop="1">
+      <c r="A31" s="13"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
+      <c r="A32" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="1" t="s">
-        <v>2</v>
+      <c r="A34" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="1" t="s">
-        <v>4</v>
+      <c r="A36" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="C37" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="C38" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="1" t="s">
-        <v>6</v>
+      <c r="A40" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="1" t="s">
-        <v>8</v>
+      <c r="A42" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="46" spans="1:12" ht="15.75" thickTop="1">
-      <c r="A46" s="4"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
+      <c r="A44" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15" thickBot="1"/>
+    <row r="46" spans="1:12" ht="15" thickTop="1">
+      <c r="A46" s="13"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="1" t="s">
-        <v>0</v>
+      <c r="A47" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="1" t="s">
-        <v>2</v>
+      <c r="A49" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="1" t="s">
-        <v>4</v>
+      <c r="A51" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="C52" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="1" t="s">
-        <v>6</v>
+      <c r="A54" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="1" t="s">
-        <v>8</v>
+      <c r="A56" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="60" spans="1:12" ht="15.75" thickTop="1">
-      <c r="A60" s="4"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
+      <c r="A58" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15" thickBot="1"/>
+    <row r="60" spans="1:12" ht="15" thickTop="1">
+      <c r="A60" s="13"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="1" t="s">
-        <v>0</v>
+      <c r="A61" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="1" t="s">
-        <v>2</v>
+      <c r="A63" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:24">
-      <c r="A65" s="1" t="s">
-        <v>4</v>
+      <c r="A65" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:24">
       <c r="C66" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:24">
       <c r="C67" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:24">
-      <c r="A69" s="1" t="s">
-        <v>6</v>
+      <c r="A69" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:24">
-      <c r="A71" s="1" t="s">
-        <v>8</v>
+      <c r="A71" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="C71" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:24">
-      <c r="A73" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" ht="15.75" thickBot="1"/>
-    <row r="75" spans="1:24" ht="15.75" thickTop="1">
-      <c r="A75" s="4"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
+      <c r="A73" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" ht="15" thickBot="1"/>
+    <row r="75" spans="1:24" ht="15" thickTop="1">
+      <c r="A75" s="13"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
     </row>
     <row r="76" spans="1:24">
-      <c r="A76" s="1" t="s">
-        <v>0</v>
+      <c r="A76" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:24">
-      <c r="A78" s="1" t="s">
-        <v>2</v>
+      <c r="A78" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C78" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:24">
       <c r="C79" t="s">
-        <v>46</v>
-      </c>
-      <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
-      <c r="V79" s="3"/>
-      <c r="W79" s="3"/>
-      <c r="X79" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="S79" s="12"/>
+      <c r="T79" s="12"/>
+      <c r="U79" s="12"/>
+      <c r="V79" s="12"/>
+      <c r="W79" s="12"/>
+      <c r="X79" s="12"/>
     </row>
     <row r="80" spans="1:24">
-      <c r="S80" s="3"/>
-      <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
-      <c r="V80" s="3"/>
-      <c r="W80" s="3"/>
-      <c r="X80" s="3"/>
+      <c r="S80" s="12"/>
+      <c r="T80" s="12"/>
+      <c r="U80" s="12"/>
+      <c r="V80" s="12"/>
+      <c r="W80" s="12"/>
+      <c r="X80" s="12"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="1" t="s">
-        <v>4</v>
+      <c r="A81" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="C82" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="D83" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="1" t="s">
-        <v>6</v>
+      <c r="A85" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="1" t="s">
-        <v>8</v>
+      <c r="A87" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="91" spans="1:12" ht="15.75" thickTop="1">
-      <c r="A91" s="4"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
+      <c r="A89" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15" thickBot="1"/>
+    <row r="91" spans="1:12" ht="15" thickTop="1">
+      <c r="A91" s="13"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="1" t="s">
-        <v>0</v>
+      <c r="A92" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="C92" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="1" t="s">
-        <v>2</v>
+      <c r="A94" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C94" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="C95" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:12">
-      <c r="A97" s="1" t="s">
-        <v>4</v>
+      <c r="A97" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="C98" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="D99" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="1:12">
-      <c r="A101" s="1" t="s">
-        <v>6</v>
+      <c r="A101" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="C101" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:12">
-      <c r="A103" s="1" t="s">
-        <v>8</v>
+      <c r="A103" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="C103" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105" spans="1:12">
-      <c r="A105" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="107" spans="1:12" ht="15.75" thickTop="1">
-      <c r="A107" s="4"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
+      <c r="A105" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="15" thickBot="1"/>
+    <row r="107" spans="1:12" ht="15" thickTop="1">
+      <c r="A107" s="13"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
     </row>
     <row r="108" spans="1:12">
-      <c r="A108" s="1" t="s">
-        <v>0</v>
+      <c r="A108" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="C108" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="1" t="s">
-        <v>2</v>
+      <c r="A110" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C110" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="C111" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="1" t="s">
-        <v>4</v>
+      <c r="A113" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="C113" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="C114" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116" spans="1:12">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="15" thickBot="1"/>
+    <row r="122" spans="1:12" ht="15" thickTop="1">
+      <c r="A122" s="13"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C123" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" s="7"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C116" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
-      <c r="A118" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
-      <c r="A120" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="122" spans="1:12" ht="15.75" thickTop="1">
-      <c r="A122" s="4"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
-      <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
-    </row>
-    <row r="123" spans="1:12">
-      <c r="A123" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C123" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12">
-      <c r="A125" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C125" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12">
-      <c r="A127" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C127" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="128" spans="1:12">
-      <c r="C128" t="s">
-        <v>62</v>
+      <c r="A128" s="7"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:12">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C130" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C132" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="15" thickBot="1">
+      <c r="A135" s="14"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="15"/>
+      <c r="K135" s="15"/>
+      <c r="L135" s="15"/>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C137" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C139" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C130" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
-      <c r="A132" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C132" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12">
-      <c r="A134" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A135" s="5"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
-      <c r="J135" s="6"/>
-      <c r="K135" s="6"/>
-      <c r="L135" s="6"/>
-    </row>
-    <row r="137" spans="1:12">
-      <c r="A137" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C137" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
-      <c r="A139" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C139" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
-      <c r="A141" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C141" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="142" spans="1:12">
       <c r="C142" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="143" spans="1:12">
       <c r="C143" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="145" spans="1:12">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C145" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C147" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="15" thickBot="1">
+      <c r="A151" s="14"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="15"/>
+      <c r="K151" s="15"/>
+      <c r="L151" s="15"/>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C153" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C155" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C145" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
-      <c r="A147" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C147" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12">
-      <c r="A149" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A151" s="5"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6"/>
-      <c r="G151" s="6"/>
-      <c r="H151" s="6"/>
-      <c r="I151" s="6"/>
-      <c r="J151" s="6"/>
-      <c r="K151" s="6"/>
-      <c r="L151" s="6"/>
-    </row>
-    <row r="153" spans="1:12">
-      <c r="A153" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C153" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12">
-      <c r="A155" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C155" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12">
-      <c r="A157" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C157" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="158" spans="1:12">
       <c r="C158" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="159" spans="1:12">
       <c r="C159" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C163" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="15" thickBot="1">
+      <c r="A167" s="1"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="15"/>
+      <c r="H167" s="15"/>
+      <c r="I167" s="15"/>
+      <c r="J167" s="15"/>
+      <c r="K167" s="15"/>
+      <c r="L167" s="15"/>
+    </row>
+    <row r="168" spans="1:12" ht="15" thickTop="1">
+      <c r="A168" s="13"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="11"/>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C161" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12">
-      <c r="A163" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C163" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12">
-      <c r="A165" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A167" s="5"/>
-      <c r="B167" s="6"/>
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="6"/>
-      <c r="F167" s="6"/>
-      <c r="G167" s="6"/>
-      <c r="H167" s="6"/>
-      <c r="I167" s="6"/>
-      <c r="J167" s="6"/>
-      <c r="K167" s="6"/>
-      <c r="L167" s="6"/>
-    </row>
-    <row r="169" spans="1:12">
-      <c r="A169" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C169" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12">
-      <c r="A171" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C171" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12">
-      <c r="A173" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C173" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" spans="1:12">
       <c r="C174" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:12">
       <c r="C175" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="1" t="s">
-        <v>63</v>
+      <c r="A177" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="C177" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="1" t="s">
-        <v>64</v>
+      <c r="A179" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="C179" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15" thickBot="1"/>
+    <row r="183" spans="1:3" ht="15" thickTop="1">
+      <c r="A183" s="3"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B184" s="8"/>
+      <c r="C184" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="7"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B186" s="8"/>
+      <c r="C186" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="7"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="8" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="7"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B189" s="8"/>
+      <c r="C189" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="7"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="7"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="8"/>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B192" s="8"/>
+      <c r="C192" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="7"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="8"/>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B194" s="8"/>
+      <c r="C194" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="7"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="8"/>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B196" s="8"/>
+      <c r="C196" s="8"/>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="7"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="8"/>
+    </row>
+    <row r="198" spans="1:3" ht="15" thickBot="1">
+      <c r="A198" s="5"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
+    </row>
+    <row r="199" spans="1:3" ht="15" thickTop="1">
+      <c r="A199" s="3"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B200" s="8"/>
+      <c r="C200" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="7"/>
+      <c r="B201" s="8"/>
+      <c r="C201" s="8"/>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B202" s="8"/>
+      <c r="C202" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="7"/>
+      <c r="B203" s="8"/>
+      <c r="C203" s="8"/>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B204" s="8"/>
+      <c r="C204" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="7"/>
+      <c r="B205" s="8"/>
+      <c r="C205" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="7"/>
+      <c r="B206" s="8"/>
+      <c r="C206" s="8"/>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B207" s="8"/>
+      <c r="C207" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="7"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="8"/>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B209" s="8"/>
+      <c r="C209" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="7"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="8"/>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B211" s="8"/>
+      <c r="C211" s="8"/>
+    </row>
+    <row r="212" spans="1:3" ht="15" thickBot="1"/>
+    <row r="213" spans="1:3" ht="15" thickTop="1">
+      <c r="A213" s="13"/>
+      <c r="B213" s="11"/>
+      <c r="C213" s="11"/>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B214" s="8"/>
+      <c r="C214" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="7"/>
+      <c r="B215" s="8"/>
+      <c r="C215" s="8"/>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B216" s="8"/>
+      <c r="C216" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="7"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="8"/>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B218" s="8"/>
+      <c r="C218" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="7"/>
+      <c r="B219" s="8"/>
+      <c r="C219" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="7"/>
+      <c r="B220" s="8"/>
+      <c r="C220" s="8"/>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B221" s="8"/>
+      <c r="C221" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="7"/>
+      <c r="B222" s="8"/>
+      <c r="C222" s="8"/>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B223" s="8"/>
+      <c r="C223" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="7"/>
+      <c r="B224" s="8"/>
+      <c r="C224" s="8"/>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B225" s="8"/>
+      <c r="C225" s="8"/>
+    </row>
+    <row r="226" spans="1:3" ht="15" thickBot="1"/>
+    <row r="227" spans="1:3" ht="15" thickTop="1">
+      <c r="A227" s="6"/>
+      <c r="B227" s="11"/>
+      <c r="C227" s="11"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -1592,16 +1995,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -1609,16 +2012,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>

--- a/TimeSheetApp/Use Case Expansion.xlsx
+++ b/TimeSheetApp/Use Case Expansion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="18980"/>
+    <workbookView xWindow="16800" yWindow="0" windowWidth="16800" windowHeight="18980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="140">
   <si>
     <t>CFO reviews employee time sheets</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -85,24 +85,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2. The Elite determines that there are no problems with the hours recorded and clicks the Approve Hours button.</t>
-  </si>
-  <si>
-    <t>The Elite has reviewed the Grunt's timesheet info.</t>
-  </si>
-  <si>
-    <t>The Elite has approved the Grunt's hours.</t>
-  </si>
-  <si>
-    <t>2. The Elite determines that there are issues with the hours recorded by the Grunt and hits the Deny Hours button.</t>
-  </si>
-  <si>
-    <t>3. A notification is sent to the Grunt to inform him or her that the hours have been denied. The Grunt must discuss the issue with the Elite.</t>
-  </si>
-  <si>
-    <t>A notification has been sent to the Grunt indicating that there is an issue with his timesheet info.</t>
-  </si>
-  <si>
     <t>ApproveVacaSick</t>
   </si>
   <si>
@@ -112,24 +94,9 @@
     <t>SendNotification</t>
   </si>
   <si>
-    <t>Elite recieves request from Grunt</t>
-  </si>
-  <si>
-    <t>1. Elite reviews text file received from Grunt</t>
-  </si>
-  <si>
-    <t>Grunt receives notification from Elite</t>
-  </si>
-  <si>
     <t>2. Elite manually adjusts Grunt's Timesheet.</t>
   </si>
   <si>
-    <t>3. Program sends notification to Grunt</t>
-  </si>
-  <si>
-    <t>Grunt requests vacation or sick time.</t>
-  </si>
-  <si>
     <t>Notification of Elite's actions sent to Grunt.</t>
   </si>
   <si>
@@ -232,15 +199,6 @@
     <t>Communicates with Elite</t>
   </si>
   <si>
-    <t>1. The Grunt activates the "Request Time Off" function of his/her terminal.</t>
-  </si>
-  <si>
-    <t>2. The Grunt fills out and submits request form.</t>
-  </si>
-  <si>
-    <t>3. Program sends alert and text file containing the Grunt's request information to the Elite.</t>
-  </si>
-  <si>
     <t>2. Program responds by stamping the time on the Grunt's "card."</t>
   </si>
   <si>
@@ -253,9 +211,6 @@
     <t>5. If RTO is approved, the Elite manually edits time sheet.</t>
   </si>
   <si>
-    <t>The Elite has been sent notification of Grunt's RTO</t>
-  </si>
-  <si>
     <t>WHOEVER HAS APPROVE TIME OFF… USE THIS PIECE (we accidentally went a little too far)</t>
   </si>
   <si>
@@ -280,18 +235,6 @@
     <t>The Elite is logged into Timesheet</t>
   </si>
   <si>
-    <t>1. After the Elite is logged in, a list of Grunts under his department appears on his screen.</t>
-  </si>
-  <si>
-    <t>2. The Elite clicks on each Grunt's name to have his or her timesheet data displayed for review.</t>
-  </si>
-  <si>
-    <t>3. The Elite reviews the hours and comments from the Grunt, determing if there are any problems with the hours.</t>
-  </si>
-  <si>
-    <t>The Elite has reviewed the Grunt's timesheet and is ready to approve or deny the hours.</t>
-  </si>
-  <si>
     <t>1. See ReviewTimesheets. At the end of ReviewTimesheets, the Elite is ready to make a decision regarding the Grunt's hours.</t>
   </si>
   <si>
@@ -443,6 +386,75 @@
   </si>
   <si>
     <t>If all hours have been input, then they will be available to be viewed by the appropriate Elite based on department.</t>
+  </si>
+  <si>
+    <t>1. The Grunt+ activates the "Request Time Off" function of his/her terminal.</t>
+  </si>
+  <si>
+    <t>2. The Grunt+ fills out and submits request form.</t>
+  </si>
+  <si>
+    <t>3. Program sends alert and text file containing the Grunt+'s request information to the Elite.</t>
+  </si>
+  <si>
+    <t>The Grunt+ is logged into TimeSheet</t>
+  </si>
+  <si>
+    <t>The Elite has been sent notification of Grunt+'s RTO</t>
+  </si>
+  <si>
+    <t>1. After the Elite is logged in, a list of Grunt/+s under his department appears on his screen.</t>
+  </si>
+  <si>
+    <t>2. The Elite clicks on each Grunt/+'s name to have his or her timesheet data displayed for review.</t>
+  </si>
+  <si>
+    <t>3. The Elite reviews the hours and comments from the Grunt/+s, determing if there are any problems with the hours.</t>
+  </si>
+  <si>
+    <t>The Elite has reviewed the Grunt/+'s timesheet and is ready to approve or deny the hours.</t>
+  </si>
+  <si>
+    <t>1. See ReviewTimesheets. At the end of ReviewTimesheets, the Elite is ready to make a decision regarding the Grunt/+'s hours.</t>
+  </si>
+  <si>
+    <t>The Elite has reviewed the Grunt/+'s timesheet info.</t>
+  </si>
+  <si>
+    <t>The Elite has approved the Grunt/+'s hours.</t>
+  </si>
+  <si>
+    <t>2. The Elite determines that there are issues with the hours recorded by the Grunt/+ and hits the "Deny Hours" button.</t>
+  </si>
+  <si>
+    <t>3. A notification is sent to the Grunt/+ to inform him or her that the hours have been denied. The Grunt/+ must discuss the issue with the Elite.</t>
+  </si>
+  <si>
+    <t>A notification has been sent to the Grunt/+ indicating that there is an issue with his timesheet info.</t>
+  </si>
+  <si>
+    <t>2. The Elite determines that there are no problems with the hours recorded and clicks the "Approve Hours" button.</t>
+  </si>
+  <si>
+    <t>Elite recieves request from Grunt+</t>
+  </si>
+  <si>
+    <t>Grunt+ receives notification from Elite</t>
+  </si>
+  <si>
+    <t>3. Program sends notification to Grunt+.</t>
+  </si>
+  <si>
+    <t>1. Elite reviews text file received from Grunt+.</t>
+  </si>
+  <si>
+    <t>2. Elite manually adjusts Grunt+'s Timesheet.</t>
+  </si>
+  <si>
+    <t>Grunt+ requests vacation or sick time.</t>
+  </si>
+  <si>
+    <t>Notification of Elite's actions sent to Grunt+.</t>
   </si>
 </sst>
 </file>
@@ -866,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="C256" sqref="C256"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -880,55 +892,55 @@
   <sheetData>
     <row r="2" spans="1:12">
       <c r="A2" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="C7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1"/>
@@ -948,78 +960,78 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="C19" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="C22" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="C23" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="P24" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="V24" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="Q25" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:22">
       <c r="P26" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15" thickBot="1"/>
@@ -1039,57 +1051,57 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="C37" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="C38" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="7" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15" thickBot="1"/>
@@ -1109,52 +1121,52 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="C52" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15" thickBot="1"/>
@@ -1174,57 +1186,57 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:24">
       <c r="A65" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:24">
       <c r="C66" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:24">
       <c r="C67" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:24">
       <c r="A69" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:24">
       <c r="A71" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:24">
       <c r="A73" s="7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="15" thickBot="1"/>
@@ -1244,23 +1256,23 @@
     </row>
     <row r="76" spans="1:24">
       <c r="A76" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:24">
       <c r="A78" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C78" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:24">
       <c r="C79" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="S79" s="9"/>
       <c r="T79" s="9"/>
@@ -1279,41 +1291,41 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C81" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="C82" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="C83" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15" thickBot="1"/>
@@ -1333,62 +1345,62 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C92" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="C95" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C97" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="C98" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="C99" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="15" thickBot="1"/>
@@ -1408,41 +1420,41 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C108" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C110" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="C111" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C113" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="C114" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C116" t="s">
         <v>3</v>
@@ -1450,7 +1462,7 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C118" t="s">
         <v>2</v>
@@ -1458,7 +1470,7 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="15" thickBot="1"/>
@@ -1478,19 +1490,19 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C123" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B125" s="4"/>
       <c r="C125" s="4" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -1500,67 +1512,67 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B127" s="4"/>
       <c r="C127" s="4" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="5"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="5"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="5"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="5"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="5"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C134" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C136" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="7" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="15" thickBot="1">
@@ -1579,72 +1591,72 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C141" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C143" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="7" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C145" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="146" spans="1:12">
       <c r="C146" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="147" spans="1:12">
       <c r="C147" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="148" spans="1:12">
       <c r="C148" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="149" spans="1:12">
       <c r="C149" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="150" spans="1:12">
       <c r="C150" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C152" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C154" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="7" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="15" thickBot="1">
@@ -1663,57 +1675,57 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C160" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C162" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="7" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C164" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="165" spans="1:12">
       <c r="C165" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="166" spans="1:12">
       <c r="C166" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C168" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C170" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="7" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="15" thickBot="1">
@@ -1737,67 +1749,67 @@
     </row>
     <row r="176" spans="1:12">
       <c r="A176" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C176" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C178" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="7" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C180" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="C181" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="C182" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="C183" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="C184" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C186" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C188" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="7" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="15" thickBot="1"/>
@@ -1812,7 +1824,7 @@
       </c>
       <c r="B193" s="4"/>
       <c r="C193" s="4" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -1847,28 +1859,28 @@
       </c>
       <c r="B198" s="4"/>
       <c r="C198" s="4" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="5"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="5"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="5"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -1882,7 +1894,7 @@
       </c>
       <c r="B203" s="4"/>
       <c r="C203" s="4" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -1896,7 +1908,7 @@
       </c>
       <c r="B205" s="4"/>
       <c r="C205" s="4" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -1932,7 +1944,7 @@
       </c>
       <c r="B211" s="4"/>
       <c r="C211" s="4" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -1960,21 +1972,21 @@
       </c>
       <c r="B215" s="4"/>
       <c r="C215" s="4" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="13"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="5"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -1988,7 +2000,7 @@
       </c>
       <c r="B219" s="4"/>
       <c r="C219" s="4" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2002,7 +2014,7 @@
       </c>
       <c r="B221" s="4"/>
       <c r="C221" s="4" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2029,7 +2041,7 @@
       </c>
       <c r="B226" s="4"/>
       <c r="C226" s="4" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2057,21 +2069,21 @@
       </c>
       <c r="B230" s="4"/>
       <c r="C230" s="4" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="5"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="5"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2126,7 +2138,7 @@
       </c>
       <c r="B241" s="4"/>
       <c r="C241" s="4" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -2140,7 +2152,7 @@
       </c>
       <c r="B243" s="4"/>
       <c r="C243" s="4" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -2154,21 +2166,21 @@
       </c>
       <c r="B245" s="4"/>
       <c r="C245" s="4" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="5"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="5"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -2182,7 +2194,7 @@
       </c>
       <c r="B249" s="4"/>
       <c r="C249" s="4" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -2196,7 +2208,7 @@
       </c>
       <c r="B251" s="4"/>
       <c r="C251" s="4" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="252" spans="1:3">

--- a/TimeSheetApp/Use Case Expansion.xlsx
+++ b/TimeSheetApp/Use Case Expansion.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="16800" windowHeight="18980"/>
+    <workbookView xWindow="16800" yWindow="0" windowWidth="16800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="149">
   <si>
     <t>CFO reviews employee time sheets</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -455,13 +455,40 @@
   </si>
   <si>
     <t>Notification of Elite's actions sent to Grunt+.</t>
+  </si>
+  <si>
+    <t>Access Audit</t>
+  </si>
+  <si>
+    <t>Initiated by CFO or Elite</t>
+  </si>
+  <si>
+    <t>1. CFO or Elite logs into Timesheet.</t>
+  </si>
+  <si>
+    <t>2. CFO or Elite clicks on the "Auditing Info" button.</t>
+  </si>
+  <si>
+    <t>3. CFO is presented with the auditing information for all employees of the system, while an Elite is presented with those pertaining to his dept.</t>
+  </si>
+  <si>
+    <t>4. CFO or Elite checks the auditing information against the information on the timesheet.</t>
+  </si>
+  <si>
+    <t>The CFO or Elite would like to validate timesheet information.</t>
+  </si>
+  <si>
+    <t>The CFO or Elite has been given the time of events that he wished to validate.</t>
+  </si>
+  <si>
+    <t>The auditing system must give an accurate account of the events occurring within the system.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -875,18 +902,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X253"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:X269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="C264" sqref="C264"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" customWidth="1"/>
-    <col min="3" max="3" width="126.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="126.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="83" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -943,8 +970,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1"/>
-    <row r="15" spans="1:12" ht="15" thickTop="1">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:12" ht="15.75" thickTop="1">
       <c r="A15" s="10"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1034,8 +1061,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="15" thickBot="1"/>
-    <row r="31" spans="1:22" ht="15" thickTop="1">
+    <row r="30" spans="1:22" ht="15.75" thickBot="1"/>
+    <row r="31" spans="1:22" ht="15.75" thickTop="1">
       <c r="A31" s="10"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1104,8 +1131,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15" thickBot="1"/>
-    <row r="46" spans="1:12" ht="15" thickTop="1">
+    <row r="45" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="46" spans="1:12" ht="15.75" thickTop="1">
       <c r="A46" s="10"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -1169,8 +1196,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15" thickBot="1"/>
-    <row r="60" spans="1:12" ht="15" thickTop="1">
+    <row r="59" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="60" spans="1:12" ht="15.75" thickTop="1">
       <c r="A60" s="10"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -1239,8 +1266,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="15" thickBot="1"/>
-    <row r="75" spans="1:24" ht="15" thickTop="1">
+    <row r="74" spans="1:24" ht="15.75" thickBot="1"/>
+    <row r="75" spans="1:24" ht="15.75" thickTop="1">
       <c r="A75" s="10"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -1328,8 +1355,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15" thickBot="1"/>
-    <row r="91" spans="1:12" ht="15" thickTop="1">
+    <row r="90" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="91" spans="1:12" ht="15.75" thickTop="1">
       <c r="A91" s="10"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -1403,8 +1430,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="15" thickBot="1"/>
-    <row r="107" spans="1:12" ht="15" thickTop="1">
+    <row r="106" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="107" spans="1:12" ht="15.75" thickTop="1">
       <c r="A107" s="10"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -1473,8 +1500,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15" thickBot="1"/>
-    <row r="122" spans="1:12" ht="15" thickTop="1">
+    <row r="121" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="122" spans="1:12" ht="15.75" thickTop="1">
       <c r="A122" s="10"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -1575,7 +1602,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="15" thickBot="1">
+    <row r="139" spans="1:12" ht="15.75" thickBot="1">
       <c r="A139" s="11"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -1659,7 +1686,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="15" thickBot="1">
+    <row r="158" spans="1:12" ht="15.75" thickBot="1">
       <c r="A158" s="11"/>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
@@ -1728,7 +1755,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="15" thickBot="1">
+    <row r="174" spans="1:12" ht="15.75" thickBot="1">
       <c r="A174" s="1"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
@@ -1742,7 +1769,7 @@
       <c r="K174" s="12"/>
       <c r="L174" s="12"/>
     </row>
-    <row r="175" spans="1:12" ht="15" thickTop="1">
+    <row r="175" spans="1:12" ht="15.75" thickTop="1">
       <c r="A175" s="10"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -1812,8 +1839,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15" thickBot="1"/>
-    <row r="192" spans="1:3" ht="15" thickTop="1">
+    <row r="191" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="192" spans="1:3" ht="15.75" thickTop="1">
       <c r="A192" s="3"/>
       <c r="B192" s="2"/>
       <c r="C192" s="3"/>
@@ -1928,12 +1955,12 @@
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
     </row>
-    <row r="209" spans="1:3" ht="15" thickBot="1">
+    <row r="209" spans="1:3" ht="15.75" thickBot="1">
       <c r="A209" s="5"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
     </row>
-    <row r="210" spans="1:3" ht="15" thickTop="1">
+    <row r="210" spans="1:3" ht="15.75" thickTop="1">
       <c r="A210" s="3"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -2029,8 +2056,8 @@
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
     </row>
-    <row r="224" spans="1:3" ht="15" thickBot="1"/>
-    <row r="225" spans="1:3" ht="15" thickTop="1">
+    <row r="224" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="225" spans="1:3" ht="15.75" thickTop="1">
       <c r="A225" s="10"/>
       <c r="B225" s="8"/>
       <c r="C225" s="8"/>
@@ -2126,8 +2153,8 @@
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
     </row>
-    <row r="239" spans="1:3" ht="15" thickBot="1"/>
-    <row r="240" spans="1:3" ht="15" thickTop="1">
+    <row r="239" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="240" spans="1:3" ht="15.75" thickTop="1">
       <c r="A240" s="6"/>
       <c r="B240" s="8"/>
       <c r="C240" s="8"/>
@@ -2222,6 +2249,112 @@
       </c>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
+    </row>
+    <row r="254" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="255" spans="1:3" ht="15.75" thickTop="1">
+      <c r="A255" s="6"/>
+      <c r="B255" s="8"/>
+      <c r="C255" s="8"/>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B256" s="4"/>
+      <c r="C256" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="5"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="4"/>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B258" s="4"/>
+      <c r="C258" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="5"/>
+      <c r="B259" s="4"/>
+      <c r="C259" s="4"/>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B260" s="4"/>
+      <c r="C260" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="5"/>
+      <c r="B261" s="4"/>
+      <c r="C261" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="5"/>
+      <c r="B262" s="4"/>
+      <c r="C262" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="5"/>
+      <c r="B263" s="4"/>
+      <c r="C263" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="5"/>
+      <c r="B264" s="4"/>
+      <c r="C264" s="4"/>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B265" s="4"/>
+      <c r="C265" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="5"/>
+      <c r="B266" s="4"/>
+      <c r="C266" s="4"/>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B267" s="4"/>
+      <c r="C267" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="5"/>
+      <c r="B268" s="4"/>
+      <c r="C268" s="4"/>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B269" s="4"/>
+      <c r="C269" s="4" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2236,12 +2369,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2253,12 +2386,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
